--- a/WorkBot/main/orders/OrderFiles/Performance Food/Performance Food _ BAKERY 02182024.xlsx
+++ b/WorkBot/main/orders/OrderFiles/Performance Food/Performance Food _ BAKERY 02182024.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,622 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FC576</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Oil - Olive Extra Virgin
+Dry Goods - B&amp;B Ingrediants</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$134.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$269.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CK336</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pan Spray
+Dry Goods - Pastry Ingredients</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$31.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$31.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FT736</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Poland Spring - Sport Top
+Beverage - Bottle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$11.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$23.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LD458</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bacon (Pre-Cooked)
+Meat - Pork</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$33.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$135.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>M3950</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bagel - Plain GF
+Dry Goods - Wraps/Breads</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$38.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$38.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CF284</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Corn - FRZ
+Produce - Frz Veg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$22.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$22.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>90614</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tomato - Fresh Sliced
+Produce - Fresh Veg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$38.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>$190.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C9108</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Corned Beef (Sliced)
+Meat - Beef</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$59.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$59.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WB408</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Natalie's - Strawberry Lemonade
+Beverage - Bottle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$10.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$31.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>WB406</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Natalie's - Orange Pineapple
+Beverage - Bottle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$13.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>$41.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>WB286</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Natalie's - Orange Mango
+Beverage - Bottle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$13.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>$41.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WC038</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Natalie's - Lemonade
+Beverage - Bottle</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$10.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$10.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>WB288</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Natalie's - Honey Tangarine
+Beverage - Bottle</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$14.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$14.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CV456</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Natalie's - Grapefruit
+Beverage - Bottle</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$13.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$26.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>L9698</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Herb - Rosemary (Fresh)
+Produce - Herbs</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$12.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$60.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>V3474</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Buttermilk
+Dairy - Milk</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$17.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>$17.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>T9026</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sour Cream
+Dairy - Cheese</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$37.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>$37.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>J2220</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Croissant - Butter
+Pastry - Bake Ready</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$55.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>$772.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A3510</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Croissant - Almond
+Pastry - Bake Ready</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$81.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>$244.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CW526</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Croissant - Chocolate
+Pastry - Bake Ready</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$80.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>$481.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FB270</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Roma - Tiramisu Plastic Cup
+Pastry - Ready Made</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$34.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>$139.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FB268</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mousse Cup - Chocolate
+Pastry - Ready Made</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$31.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>$94.80</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
